--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:10:48+00:00</t>
+    <t>2022-05-03T15:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:15:42+00:00</t>
+    <t>2022-05-03T16:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:40:40+00:00</t>
+    <t>2022-05-03T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T16:58:51+00:00</t>
+    <t>2022-05-03T18:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:00:02+00:00</t>
+    <t>2022-05-03T18:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:15:57+00:00</t>
+    <t>2022-05-03T18:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:29:57+00:00</t>
+    <t>2022-05-03T19:20:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:20:08+00:00</t>
+    <t>2022-05-03T19:37:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:37:02+00:00</t>
+    <t>2022-05-03T19:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:46:06+00:00</t>
+    <t>2022-05-04T13:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:03:34+00:00</t>
+    <t>2022-05-04T13:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:10:48+00:00</t>
+    <t>2022-05-04T13:13:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:13:59+00:00</t>
+    <t>2022-05-04T13:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:39:21+00:00</t>
+    <t>2022-05-04T15:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T15:50:12+00:00</t>
+    <t>2022-05-04T16:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T16:10:39+00:00</t>
+    <t>2022-05-04T16:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T16:22:16+00:00</t>
+    <t>2022-05-04T18:38:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T18:38:54+00:00</t>
+    <t>2022-05-09T16:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:15:14+00:00</t>
+    <t>2022-05-09T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/version-1/StructureDefinition-parent-reference.xlsx
+++ b/branches/version-1/StructureDefinition-parent-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-09T16:42:31+00:00</t>
+    <t>2022-05-09T17:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
